--- a/SRC/DEMO_CODE_drivers.xlsx
+++ b/SRC/DEMO_CODE_drivers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\OneDrive\Рабочий стол\SANDBOX\DEMO_CODE\SRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D454DD4-56BC-4F87-8C45-94F5FD58594F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8D6DE0-8339-48EA-95B0-1694DFD400BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -133,9 +133,6 @@
     <t>Ford F-150 О197СС777, #Х359РС120У33</t>
   </si>
   <si>
-    <t>Ford Escape У799СС799, #С359РУ120У33</t>
-  </si>
-  <si>
     <t>Ford Explorer Р199ЕХ197, #Н359ЕС120У33</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>Toyota RAV4 У797УХ777, #К797РХ120С33</t>
   </si>
   <si>
-    <t>Toyota Prius О777ОР799, #Р797ЕК120Е33</t>
-  </si>
-  <si>
     <t>Toyota Highlander Е799СС797, #С199ЕС120У33</t>
   </si>
   <si>
@@ -169,9 +163,6 @@
     <t>BMW 3 Series С456НУ799, #Е111НС120О33</t>
   </si>
   <si>
-    <t>BMW 5 Series О789РО799, #К123РР120Е33</t>
-  </si>
-  <si>
     <t>BMW X3 С234ОР799, #О987УС120У33</t>
   </si>
   <si>
@@ -184,33 +175,18 @@
     <t>Mercedes-Benz C-Class У798ОН799, #Е797СО120О33</t>
   </si>
   <si>
-    <t>Mercedes-Benz E-Class К111УО799, #С789УУ120У33</t>
-  </si>
-  <si>
     <t>Mercedes-Benz GLE О123ЕР799, #С789ЕС120Е33</t>
   </si>
   <si>
     <t>Mercedes-Benz A-Class Р234ОС799, #Е987СС120У33</t>
   </si>
   <si>
-    <t>Mercedes-Benz S-Class У512УУ799, #Н799ОЕ120Р33</t>
-  </si>
-  <si>
-    <t>Chevrolet Camaro О123ЕХ777, #C222EE120У33</t>
-  </si>
-  <si>
-    <t>Chevrolet Impala О456ЕР199, #С345ЕЕ120У33</t>
-  </si>
-  <si>
     <t>Chevrolet Malibu С789НХ797, #Н777ОХ220Р44</t>
   </si>
   <si>
     <t>Chevrolet Tahoe К321РО177, #Р123ОУ100К22</t>
   </si>
   <si>
-    <t>Chevrolet Equinox У654ОУ799, #С678УХ450Н11</t>
-  </si>
-  <si>
     <t>Chevrolet Traverse О987РЕ797, #Е234КС650Х55</t>
   </si>
   <si>
@@ -305,6 +281,30 @@
   </si>
   <si>
     <t>Беляева Елена Александровна</t>
+  </si>
+  <si>
+    <t>Chevrolet Camaro О123ЕХ777 #C222ЕЕ120У33</t>
+  </si>
+  <si>
+    <t>Chevrolet Impala О456ЕР199 #C345ЕЕ120У33</t>
+  </si>
+  <si>
+    <t>Chevrolet Equinox У654ОУ799, #Z678FD450Н11</t>
+  </si>
+  <si>
+    <t>Ford Escape У799СС799, #F359LR120G33</t>
+  </si>
+  <si>
+    <t>Toyota Prius О777ОР799, #D797QQ120Е33</t>
+  </si>
+  <si>
+    <t>BMW 5 Series О789РО799, #L123РР120Е33</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz E-Class К111УО799, #Z789ZX120У33</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz S-Class У512УУ799, #S799SS120Р33</t>
   </si>
 </sst>
 </file>
@@ -425,9 +425,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -449,7 +446,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -460,6 +457,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,8 +852,8 @@
   </sheetPr>
   <dimension ref="B1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="10" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
@@ -888,18 +888,18 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="2:7" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="2:7" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="2:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -951,702 +951,702 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="2:7" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="2:7" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9">
+        <v>43061.344236111108</v>
+      </c>
+      <c r="E14" s="10">
+        <v>4376</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="11">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="9">
+        <v>42627.828194444446</v>
+      </c>
+      <c r="E15" s="10">
+        <v>4377</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="9">
+        <v>44741.431921296295</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4378</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="11">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="9">
+        <v>43802.699421296296</v>
+      </c>
+      <c r="E17" s="10">
+        <v>4379</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="11">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="9">
+        <v>42235.897997685184</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4380</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="9">
+        <v>44326.333252314813</v>
+      </c>
+      <c r="E19" s="10">
+        <v>4381</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="11">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="9">
+        <v>44985.592002314814</v>
+      </c>
+      <c r="E20" s="10">
+        <v>4382</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="2:7" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B23" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="9">
+        <v>44186.333333333336</v>
+      </c>
+      <c r="E23" s="10">
+        <v>4570</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="11">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="9">
+        <v>43822.727523148147</v>
+      </c>
+      <c r="E24" s="10">
+        <v>5753</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B25" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="9">
+        <v>43489.750011574077</v>
+      </c>
+      <c r="E25" s="10">
+        <v>2727</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="11">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="9">
+        <v>44531.999988425923</v>
+      </c>
+      <c r="E26" s="10">
+        <v>5044</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="9">
+        <v>41699.750393518516</v>
+      </c>
+      <c r="E27" s="10">
+        <v>5537</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="11">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="2:7" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="B29" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B30" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="9">
+        <v>39871.357118055559</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="10">
-        <v>43061.344236111108</v>
-      </c>
-      <c r="E14" s="11">
-        <v>4376</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="12">
+      <c r="F30" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="11">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="9">
+        <v>39883.383819444447</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="11">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B32" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="9">
+        <v>39883.455104166664</v>
+      </c>
+      <c r="E32" s="15">
+        <v>2135</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="11">
         <v>4.5</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="10">
-        <v>42627.828194444446</v>
-      </c>
-      <c r="E15" s="11">
-        <v>4377</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="12">
+    <row r="33" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B33" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="9">
+        <v>41519.520127314812</v>
+      </c>
+      <c r="E33" s="10">
+        <v>2134</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="11">
         <v>4.2</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
+    <row r="34" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B34" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="9">
+        <v>41519.618483796294</v>
+      </c>
+      <c r="E34" s="10">
+        <v>2137</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B35" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="9">
+        <v>41519.650902777779</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="10">
-        <v>44741.431921296295</v>
-      </c>
-      <c r="E16" s="11">
-        <v>4378</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="12">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
+      <c r="F35" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="11">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B36" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="9">
+        <v>41519.364687499998</v>
+      </c>
+      <c r="E36" s="10">
+        <v>2136</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="2:7" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="B38" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B39" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="9">
+        <v>42733.436793981484</v>
+      </c>
+      <c r="E39" s="10">
+        <v>3962</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B40" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="9">
+        <v>42065.387291666666</v>
+      </c>
+      <c r="E40" s="10">
+        <v>4028</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="11">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B41" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="9">
+        <v>44804.48364583333</v>
+      </c>
+      <c r="E41" s="15">
+        <v>3199</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B42" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="9">
+        <v>42706.390451388892</v>
+      </c>
+      <c r="E42" s="10">
+        <v>3068</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="11">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B43" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="9">
+        <v>42004.583969907406</v>
+      </c>
+      <c r="E43" s="10">
+        <v>3067</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="11">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B44" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="9">
+        <v>42004.584131944444</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="2:7" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="B46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B47" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="9">
+        <v>40016.389976851853</v>
+      </c>
+      <c r="E47" s="10">
+        <v>4564</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B48" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="9">
+        <v>39758.427395833336</v>
+      </c>
+      <c r="E48" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="10">
-        <v>43802.699421296296</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="F48" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" s="11">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B49" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="9">
+        <v>43161.573599537034</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" s="11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B50" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="9">
+        <v>43221.400833333333</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" s="11">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B51" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="9">
+        <v>43161.543634259258</v>
+      </c>
+      <c r="E51" s="10">
         <v>4379</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="12">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="10">
-        <v>42235.897997685184</v>
-      </c>
-      <c r="E18" s="11">
-        <v>4380</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="12">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B19" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="10">
-        <v>44326.333252314813</v>
-      </c>
-      <c r="E19" s="11">
-        <v>4381</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="12">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="10">
-        <v>44985.592002314814</v>
-      </c>
-      <c r="E20" s="11">
-        <v>4382</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="12">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="2:7" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="B22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="10">
-        <v>44186.333333333336</v>
-      </c>
-      <c r="E23" s="11">
-        <v>4570</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="12">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B24" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="10">
-        <v>43822.727523148147</v>
-      </c>
-      <c r="E24" s="11">
-        <v>5753</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="12">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B25" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="10">
-        <v>43489.750011574077</v>
-      </c>
-      <c r="E25" s="11">
-        <v>2727</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="12">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B26" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="10">
-        <v>44531.999988425923</v>
-      </c>
-      <c r="E26" s="11">
-        <v>5044</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="12">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B27" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="10">
-        <v>41699.750393518516</v>
-      </c>
-      <c r="E27" s="11">
-        <v>5537</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="12">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="2:7" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="B29" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B30" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="10">
-        <v>39871.357118055559</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="12">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B31" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="10">
-        <v>39883.383819444447</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="12">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B32" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="10">
-        <v>39883.455104166664</v>
-      </c>
-      <c r="E32" s="16">
-        <v>2135</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="12">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B33" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="10">
-        <v>41519.520127314812</v>
-      </c>
-      <c r="E33" s="11">
-        <v>2134</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="12">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B34" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="10">
-        <v>41519.618483796294</v>
-      </c>
-      <c r="E34" s="11">
-        <v>2137</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="12">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B35" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="10">
-        <v>41519.650902777779</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="12">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="10">
-        <v>41519.364687499998</v>
-      </c>
-      <c r="E36" s="11">
-        <v>2136</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" s="12">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="2:7" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="B38" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B39" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="10">
-        <v>42733.436793981484</v>
-      </c>
-      <c r="E39" s="11">
-        <v>3962</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="12">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B40" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="10">
-        <v>42065.387291666666</v>
-      </c>
-      <c r="E40" s="11">
-        <v>4028</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G40" s="12">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B41" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="10">
-        <v>44804.48364583333</v>
-      </c>
-      <c r="E41" s="16">
-        <v>3199</v>
-      </c>
-      <c r="F41" s="17" t="s">
+      <c r="F51" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G41" s="12">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B42" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="10">
-        <v>42706.390451388892</v>
-      </c>
-      <c r="E42" s="11">
-        <v>3068</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="G42" s="12">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B43" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="10">
-        <v>42004.583969907406</v>
-      </c>
-      <c r="E43" s="11">
-        <v>3067</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G43" s="12">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B44" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="10">
-        <v>42004.584131944444</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G44" s="12">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="2:7" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="B46" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B47" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="10">
-        <v>40016.389976851853</v>
-      </c>
-      <c r="E47" s="11">
-        <v>4564</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G47" s="12">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B48" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="10">
-        <v>39758.427395833336</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" s="12">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B49" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="10">
-        <v>43161.573599537034</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G49" s="12">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B50" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="10">
-        <v>43221.400833333333</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G50" s="12">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="B51" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="10">
-        <v>43161.543634259258</v>
-      </c>
-      <c r="E51" s="11">
-        <v>4379</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G51" s="12">
+      <c r="G51" s="11">
         <v>4.5</v>
       </c>
     </row>

--- a/SRC/DEMO_CODE_drivers.xlsx
+++ b/SRC/DEMO_CODE_drivers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\OneDrive\Рабочий стол\SANDBOX\DEMO_CODE\SRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8D6DE0-8339-48EA-95B0-1694DFD400BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F89E25-D95A-4BD0-B758-86D55E9630BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,9 +163,6 @@
     <t>BMW 3 Series С456НУ799, #Е111НС120О33</t>
   </si>
   <si>
-    <t>BMW X3 С234ОР799, #О987УС120У33</t>
-  </si>
-  <si>
     <t>BMW 7 Series У512ОУ777, #У799СС120У33</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>Mercedes-Benz C-Class У798ОН799, #Е797СО120О33</t>
   </si>
   <si>
-    <t>Mercedes-Benz GLE О123ЕР799, #С789ЕС120Е33</t>
-  </si>
-  <si>
     <t>Mercedes-Benz A-Class Р234ОС799, #Е987СС120У33</t>
   </si>
   <si>
@@ -190,12 +184,6 @@
     <t>Chevrolet Traverse О987РЕ797, #Е234КС650Х55</t>
   </si>
   <si>
-    <t>Chevrolet Silverado Е456СР799, #Р678СО120Н22</t>
-  </si>
-  <si>
-    <t>Ford Mustang Р123РХ799, #С361СС920У33</t>
-  </si>
-  <si>
     <t>БЗ-00008</t>
   </si>
   <si>
@@ -295,9 +283,6 @@
     <t>Ford Escape У799СС799, #F359LR120G33</t>
   </si>
   <si>
-    <t>Toyota Prius О777ОР799, #D797QQ120Е33</t>
-  </si>
-  <si>
     <t>BMW 5 Series О789РО799, #L123РР120Е33</t>
   </si>
   <si>
@@ -305,6 +290,21 @@
   </si>
   <si>
     <t>Mercedes-Benz S-Class У512УУ799, #S799SS120Р33</t>
+  </si>
+  <si>
+    <t>BMW X3 #О987УС120У33, С234ОР799</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz GLE #С789ЕС120Е33, ddd00ef, О123ЕР799</t>
+  </si>
+  <si>
+    <t>Toyota Prius #У797АА120С33, О777ОР799, #D797QQ120Е33</t>
+  </si>
+  <si>
+    <t>Ford Mustang D123SS799, #С361СС920У33, Р123РХ799</t>
+  </si>
+  <si>
+    <t>Chevrolet Silverado #Р678СО120Н22, Е456СР799</t>
   </si>
 </sst>
 </file>
@@ -852,8 +852,8 @@
   </sheetPr>
   <dimension ref="B1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="10" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
@@ -972,7 +972,7 @@
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>11</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>11</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>11</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>11</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B18" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>11</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="19" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>11</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="20" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>11</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="23" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B23" s="13" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>11</v>
@@ -1144,7 +1144,7 @@
         <v>4570</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G23" s="11">
         <v>4.8</v>
@@ -1164,7 +1164,7 @@
         <v>5753</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G24" s="11">
         <v>4.5999999999999996</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="25" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B25" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>11</v>
@@ -1184,7 +1184,7 @@
         <v>2727</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G25" s="11">
         <v>3.9</v>
@@ -1204,7 +1204,7 @@
         <v>5044</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G26" s="11">
         <v>4.2</v>
@@ -1224,7 +1224,7 @@
         <v>5537</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G27" s="11">
         <v>4.5</v>
@@ -1261,10 +1261,10 @@
         <v>39871.357118055559</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G30" s="11">
         <v>4.8</v>
@@ -1281,10 +1281,10 @@
         <v>39883.383819444447</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G31" s="11">
         <v>4.3</v>
@@ -1304,7 +1304,7 @@
         <v>2135</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G32" s="11">
         <v>4.5</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="33" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>11</v>
@@ -1324,7 +1324,7 @@
         <v>2134</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G33" s="11">
         <v>4.2</v>
@@ -1344,7 +1344,7 @@
         <v>2137</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G34" s="11">
         <v>4.9000000000000004</v>
@@ -1361,10 +1361,10 @@
         <v>41519.650902777779</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G35" s="11">
         <v>3.9</v>
@@ -1384,7 +1384,7 @@
         <v>2136</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G36" s="11">
         <v>4.5999999999999996</v>
@@ -1424,7 +1424,7 @@
         <v>3962</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G39" s="11">
         <v>4.9000000000000004</v>
@@ -1444,7 +1444,7 @@
         <v>4028</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G40" s="11">
         <v>4.3</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="41" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>11</v>
@@ -1464,7 +1464,7 @@
         <v>3199</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G41" s="11">
         <v>4.2</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="42" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>11</v>
@@ -1484,7 +1484,7 @@
         <v>3068</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G42" s="11">
         <v>3.9</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="43" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B43" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>11</v>
@@ -1504,7 +1504,7 @@
         <v>3067</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G43" s="11">
         <v>4.5</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="44" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>11</v>
@@ -1524,7 +1524,7 @@
         <v>12</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G44" s="11">
         <v>4.5999999999999996</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="47" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B47" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>11</v>
@@ -1564,7 +1564,7 @@
         <v>4564</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G47" s="11">
         <v>4.9000000000000004</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="48" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>11</v>
@@ -1581,10 +1581,10 @@
         <v>39758.427395833336</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G48" s="11">
         <v>4.3</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="49" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>11</v>
@@ -1601,10 +1601,10 @@
         <v>43161.573599537034</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G49" s="11">
         <v>4.2</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="50" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B50" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>11</v>
@@ -1621,10 +1621,10 @@
         <v>43221.400833333333</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G50" s="11">
         <v>3.9</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="51" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B51" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>11</v>
@@ -1644,7 +1644,7 @@
         <v>4379</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G51" s="11">
         <v>4.5</v>

--- a/SRC/DEMO_CODE_drivers.xlsx
+++ b/SRC/DEMO_CODE_drivers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\OneDrive\Рабочий стол\SANDBOX\DEMO_CODE\SRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F89E25-D95A-4BD0-B758-86D55E9630BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A03892-EFF2-479B-8394-A6B71498BC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -852,18 +852,18 @@
   </sheetPr>
   <dimension ref="B1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="10" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.83203125" defaultRowHeight="11.25" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="59.44140625" customWidth="1"/>
+    <col min="2" max="2" width="59.5" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="35.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1187,7 +1187,7 @@
         <v>59</v>
       </c>
       <c r="G25" s="11">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -1367,7 +1367,7 @@
         <v>67</v>
       </c>
       <c r="G35" s="11">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -1627,7 +1627,7 @@
         <v>78</v>
       </c>
       <c r="G50" s="11">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="12" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
